--- a/xlsx/美国_intext.xlsx
+++ b/xlsx/美国_intext.xlsx
@@ -29,7 +29,7 @@
     <t>USA (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_政治_美国</t>
+    <t>体育运动_体育运动_奥林匹克运动会_美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/US_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
@@ -40184,7 +40184,7 @@
         <v>1898</v>
       </c>
       <c r="G1056" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1056" t="s">
         <v>4</v>
@@ -40213,7 +40213,7 @@
         <v>318</v>
       </c>
       <c r="G1057" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1057" t="s">
         <v>4</v>
